--- a/Задания Skillfactory/PY16/data/grades.xlsx
+++ b/Задания Skillfactory/PY16/data/grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Maths" sheetId="1" r:id="rId1"/>
     <sheet name="ML" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,13 +20,16 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>Student name</t>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Женя</t>
+  </si>
+  <si>
+    <t>Оля</t>
   </si>
   <si>
     <t>Grade</t>
-  </si>
-  <si>
-    <t>Аня</t>
   </si>
   <si>
     <t>Катя</t>
@@ -38,48 +41,356 @@
     <t>Миша</t>
   </si>
   <si>
-    <t>Женя</t>
-  </si>
-  <si>
-    <t>Оля</t>
-  </si>
-  <si>
     <t>Витя</t>
   </si>
   <si>
     <t>Дима</t>
+  </si>
+  <si>
+    <t>Student name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -88,32 +399,203 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -231,7 +713,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,146 +887,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>5</v>
       </c>
     </row>
@@ -555,146 +1015,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>5</v>
       </c>
     </row>
